--- a/20160218-adverse_events/builds/development/data/maindata.xlsx
+++ b/20160218-adverse_events/builds/development/data/maindata.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
     <sheet name="summary" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="4" r:id="rId3"/>
+    <sheet name="layout" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="330">
   <si>
     <t>year</t>
   </si>
@@ -988,12 +989,39 @@
   <si>
     <t>Adverse medical events at Minnesota hospitals, 2005-2016</t>
   </si>
+  <si>
+    <t>Data year</t>
+  </si>
+  <si>
+    <t>Hospital name</t>
+  </si>
+  <si>
+    <t>Hospital city</t>
+  </si>
+  <si>
+    <t>Event category</t>
+  </si>
+  <si>
+    <t>Number of events</t>
+  </si>
+  <si>
+    <t>Number of resulting deaths from event</t>
+  </si>
+  <si>
+    <t>Number of resulting injuries from event</t>
+  </si>
+  <si>
+    <t>Event category code</t>
+  </si>
+  <si>
+    <t>Number of adverse events</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1014,6 +1042,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1032,8 +1072,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1044,7 +1086,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1378,7 +1422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -39218,6 +39262,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -39232,7 +39277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -39363,7 +39408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -39423,4 +39468,114 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>